--- a/Main Script/OSF archive/AMATUS_codebook.xlsx
+++ b/Main Script/OSF archive/AMATUS_codebook.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankie/Downloads/osfstorage-archive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankie/Desktop/Dr. Lai Feature Selection Project 9.13.24/Main Script/OSF archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E1124E-C031-014D-962F-7B589AADB8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80291940-C64D-6643-B30B-FE2E46B16190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="780" windowWidth="20420" windowHeight="17900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -2826,9 +2826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3321,7 +3321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="E15" s="1" t="s">
         <v>95</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>477</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="E82" s="1" t="s">
         <v>483</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="E83" s="1" t="s">
         <v>491</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="E84" s="1" t="s">
         <v>493</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="E85" s="1" t="s">
         <v>496</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="E86" s="1" t="s">
         <v>502</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="E87" s="1" t="s">
         <v>504</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="E88" s="1" t="s">
         <v>506</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="E89" s="1" t="s">
         <v>508</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="E90" s="1" t="s">
         <v>510</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D91" s="1" t="s">
         <v>512</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D92" s="1" t="s">
         <v>521</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D93" s="1" t="s">
         <v>527</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D94" s="1" t="s">
         <v>533</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D95" s="1" t="s">
         <v>539</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D96" s="1" t="s">
         <v>545</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>551</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>156</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>162</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>168</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="E101" s="1" t="s">
         <v>575</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="E102" s="1" t="s">
         <v>580</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="E103" s="1" t="s">
         <v>585</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="E104" s="1" t="s">
         <v>590</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="E105" s="1" t="s">
         <v>595</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="E106" s="1" t="s">
         <v>600</v>
       </c>
